--- a/Stats IC Workbook.xlsx
+++ b/Stats IC Workbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danae\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danae\Desktop\brambles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7157AC2C-79D1-4695-B3D4-2AB6B50C4888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C3BEC4-711D-4DAE-A25A-1AC3A09A39B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{D442513E-7361-42FB-8DE6-766F1427AAD8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Reviews Complete</t>
   </si>
@@ -72,6 +72,39 @@
   </si>
   <si>
     <t>Reviewer</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Driven Piles Streetside</t>
+  </si>
+  <si>
+    <t>Slab Pour</t>
+  </si>
+  <si>
+    <t>Geotechnical</t>
+  </si>
+  <si>
+    <t>Structural</t>
+  </si>
+  <si>
+    <t>Overhead Wiring Structure</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>Simon Deck</t>
+  </si>
+  <si>
+    <t>Alex Smith</t>
   </si>
 </sst>
 </file>
@@ -426,7 +459,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -449,13 +482,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309A3FB4-0C27-4BC2-950E-C88B9A04D147}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -472,6 +510,57 @@
       </c>
       <c r="E1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Stats IC Workbook.xlsx
+++ b/Stats IC Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danae\Desktop\brambles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C3BEC4-711D-4DAE-A25A-1AC3A09A39B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A648247B-A54D-4734-B288-54A9F778713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{D442513E-7361-42FB-8DE6-766F1427AAD8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{D442513E-7361-42FB-8DE6-766F1427AAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C18A183-03C6-4BC8-B0F7-D72AFCBCAD85}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309A3FB4-0C27-4BC2-950E-C88B9A04D147}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -642,9 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932C364D-1269-4AA3-AB3A-59A198F2C9C9}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
